--- a/Output/Descriptives/Pct_miss_semester.xlsx
+++ b/Output/Descriptives/Pct_miss_semester.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,10 +391,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>51.47812376823019</v>
+        <v>51.51754040204967</v>
       </c>
       <c r="D2">
-        <v>54.11490683229814</v>
+        <v>54.19254658385093</v>
       </c>
     </row>
     <row r="3">
@@ -409,7 +409,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>52.38470634607805</v>
+        <v>52.42412297989751</v>
       </c>
       <c r="D3">
         <v>52.40683229813664</v>
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>49.94087504927079</v>
+        <v>49.98029168309026</v>
       </c>
       <c r="D4">
         <v>50.42701863354038</v>
@@ -481,82 +481,82 @@
         </is>
       </c>
       <c r="C7">
-        <v>50.05912495072921</v>
+        <v>51.79345683878596</v>
       </c>
       <c r="D7">
-        <v>50.31055900621118</v>
+        <v>54.38664596273291</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S02-Cerro Navia</t>
+          <t>S01-Cerrillos</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C8">
-        <v>2.562081198265668</v>
+        <v>51.51754040204967</v>
       </c>
       <c r="D8">
-        <v>1.513975155279503</v>
+        <v>54.19254658385093</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S02-Cerro Navia</t>
+          <t>S01-Cerrillos</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C9">
-        <v>7.489160425699645</v>
+        <v>52.42412297989751</v>
       </c>
       <c r="D9">
-        <v>17.77950310559006</v>
+        <v>52.40683229813664</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S02-Cerro Navia</t>
+          <t>S01-Cerrillos</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C10">
-        <v>1.024832479306267</v>
+        <v>49.98029168309026</v>
       </c>
       <c r="D10">
-        <v>2.212732919254659</v>
+        <v>50.42701863354038</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S02-Cerro Navia</t>
+          <t>S01-Cerrillos</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C11">
-        <v>2.916830902640914</v>
+        <v>51.79345683878596</v>
       </c>
       <c r="D11">
-        <v>3.998447204968944</v>
+        <v>54.38664596273291</v>
       </c>
     </row>
     <row r="12">
@@ -567,14 +567,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C12">
-        <v>3.113914071738273</v>
+        <v>3.232163973196689</v>
       </c>
       <c r="D12">
-        <v>3.998447204968944</v>
+        <v>1.824534161490683</v>
       </c>
     </row>
     <row r="13">
@@ -585,344 +585,344 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="C13">
-        <v>6.346078044934962</v>
+        <v>7.489160425699645</v>
       </c>
       <c r="D13">
-        <v>5.706521739130435</v>
+        <v>17.77950310559006</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM10</t>
         </is>
       </c>
       <c r="C14">
-        <v>2.207331493890422</v>
+        <v>1.024832479306267</v>
       </c>
       <c r="D14">
-        <v>2.445652173913043</v>
+        <v>2.251552795031056</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="C15">
-        <v>10.09065825778478</v>
+        <v>2.916830902640914</v>
       </c>
       <c r="D15">
-        <v>12.18944099378882</v>
+        <v>3.998447204968944</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C16">
-        <v>1.616081986598344</v>
+        <v>3.113914071738273</v>
       </c>
       <c r="D16">
-        <v>1.863354037267081</v>
+        <v>3.998447204968944</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.5124162396531337</v>
+        <v>9.184075679936933</v>
       </c>
       <c r="D17">
-        <v>3.027950310559006</v>
+        <v>7.142857142857142</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C18">
-        <v>2.719747733543556</v>
+        <v>3.232163973196689</v>
       </c>
       <c r="D18">
-        <v>2.989130434782609</v>
+        <v>1.824534161490683</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C19">
         <v>7.489160425699645</v>
       </c>
       <c r="D19">
-        <v>6.09472049689441</v>
+        <v>17.77950310559006</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C20">
-        <v>17.0674024438313</v>
+        <v>1.024832479306267</v>
       </c>
       <c r="D20">
-        <v>21.38975155279503</v>
+        <v>2.251552795031056</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C21">
-        <v>25.85731178557351</v>
+        <v>9.184075679936933</v>
       </c>
       <c r="D21">
-        <v>29.50310559006211</v>
+        <v>7.142857142857142</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C22">
-        <v>15.64840362633031</v>
+        <v>2.246748127709894</v>
       </c>
       <c r="D22">
-        <v>20.72981366459627</v>
+        <v>2.445652173913043</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="C23">
-        <v>15.76665352778873</v>
+        <v>10.13007489160426</v>
       </c>
       <c r="D23">
-        <v>20.57453416149069</v>
+        <v>12.18944099378882</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM10</t>
         </is>
       </c>
       <c r="C24">
-        <v>15.92432006306661</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="D24">
-        <v>23.29192546583851</v>
+        <v>1.863354037267081</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="C25">
-        <v>15.01773748521876</v>
+        <v>0.5124162396531337</v>
       </c>
       <c r="D25">
-        <v>20.69099378881987</v>
+        <v>3.027950310559006</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C26">
-        <v>16.83090264091447</v>
+        <v>2.719747733543556</v>
       </c>
       <c r="D26">
-        <v>6.599378881987578</v>
+        <v>2.989130434782609</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C27">
-        <v>8.829325975561687</v>
+        <v>9.341742215214822</v>
       </c>
       <c r="D27">
-        <v>20.84627329192547</v>
+        <v>7.220496894409938</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C28">
-        <v>1.970831690973591</v>
+        <v>2.246748127709894</v>
       </c>
       <c r="D28">
-        <v>1.513975155279503</v>
+        <v>2.445652173913043</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C29">
-        <v>1.143082380764683</v>
+        <v>10.13007489160426</v>
       </c>
       <c r="D29">
-        <v>4.580745341614907</v>
+        <v>12.18944099378882</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C30">
-        <v>8.592826172644855</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="D30">
-        <v>10.75310559006211</v>
+        <v>1.863354037267081</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C31">
-        <v>1.221915648403626</v>
+        <v>9.341742215214822</v>
       </c>
       <c r="D31">
-        <v>4.076086956521739</v>
+        <v>7.220496894409938</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -931,16 +931,16 @@
         </is>
       </c>
       <c r="C32">
-        <v>2.60149783208514</v>
+        <v>17.10681907765077</v>
       </c>
       <c r="D32">
-        <v>2.368012422360248</v>
+        <v>21.38975155279503</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C33">
-        <v>5.20299566417028</v>
+        <v>25.97556168703193</v>
       </c>
       <c r="D33">
-        <v>13.66459627329193</v>
+        <v>29.50310559006211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -967,16 +967,16 @@
         </is>
       </c>
       <c r="C34">
-        <v>1.773748521876232</v>
+        <v>15.72723689396925</v>
       </c>
       <c r="D34">
-        <v>1.669254658385093</v>
+        <v>20.72981366459627</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="C35">
-        <v>7.765076862435947</v>
+        <v>15.76665352778873</v>
       </c>
       <c r="D35">
-        <v>8.035714285714286</v>
+        <v>20.57453416149069</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1003,16 +1003,16 @@
         </is>
       </c>
       <c r="C36">
-        <v>5.478912100906583</v>
+        <v>15.92432006306661</v>
       </c>
       <c r="D36">
-        <v>10.71428571428571</v>
+        <v>23.29192546583851</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1021,448 +1021,448 @@
         </is>
       </c>
       <c r="C37">
-        <v>15.01773748521876</v>
+        <v>17.50098541584549</v>
       </c>
       <c r="D37">
-        <v>13.74223602484472</v>
+        <v>21.8167701863354</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C38">
-        <v>2.877414268821442</v>
+        <v>17.10681907765077</v>
       </c>
       <c r="D38">
-        <v>5.124223602484472</v>
+        <v>21.38975155279503</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C39">
-        <v>8.711076074103271</v>
+        <v>25.97556168703193</v>
       </c>
       <c r="D39">
-        <v>17.43012422360248</v>
+        <v>29.50310559006211</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.9065825778478518</v>
+        <v>15.72723689396925</v>
       </c>
       <c r="D40">
-        <v>0.6599378881987578</v>
+        <v>20.72981366459627</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.5518328734726055</v>
+        <v>17.50098541584549</v>
       </c>
       <c r="D41">
-        <v>3.493788819875776</v>
+        <v>21.8167701863354</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.6306661411115491</v>
+        <v>16.87031927473394</v>
       </c>
       <c r="D42">
-        <v>3.649068322981366</v>
+        <v>6.599378881987578</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="C43">
-        <v>4.966495861253449</v>
+        <v>8.908159243200631</v>
       </c>
       <c r="D43">
-        <v>3.687888198757764</v>
+        <v>20.84627329192547</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM10</t>
         </is>
       </c>
       <c r="C44">
-        <v>6.424911312573907</v>
+        <v>2.010248324793063</v>
       </c>
       <c r="D44">
-        <v>1.902173913043478</v>
+        <v>1.669254658385093</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="C45">
-        <v>7.094994087504928</v>
+        <v>1.143082380764683</v>
       </c>
       <c r="D45">
-        <v>18.01242236024845</v>
+        <v>4.580745341614907</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C46">
-        <v>1.773748521876232</v>
+        <v>8.592826172644855</v>
       </c>
       <c r="D46">
-        <v>0.8152173913043478</v>
+        <v>10.75310559006211</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C47">
-        <v>6.582577847851794</v>
+        <v>17.18565234528971</v>
       </c>
       <c r="D47">
-        <v>5.822981366459627</v>
+        <v>9.510869565217392</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C48">
-        <v>12.81040599132834</v>
+        <v>16.87031927473394</v>
       </c>
       <c r="D48">
-        <v>17.77950310559006</v>
+        <v>6.599378881987578</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.5518328734726055</v>
+        <v>8.908159243200631</v>
       </c>
       <c r="D49">
-        <v>4.503105590062112</v>
+        <v>20.84627329192547</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C50">
-        <v>2.16791486007095</v>
+        <v>2.010248324793063</v>
       </c>
       <c r="D50">
-        <v>2.562111801242236</v>
+        <v>1.669254658385093</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C51">
-        <v>100</v>
+        <v>17.18565234528971</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>9.510869565217392</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.9854158454867954</v>
+        <v>2.798581001182499</v>
       </c>
       <c r="D52">
-        <v>1.785714285714286</v>
+        <v>2.368012422360248</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="C53">
-        <v>11.86440677966102</v>
+        <v>5.478912100906583</v>
       </c>
       <c r="D53">
-        <v>13.58695652173913</v>
+        <v>13.81987577639752</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM10</t>
         </is>
       </c>
       <c r="C54">
-        <v>4.178163184864013</v>
+        <v>1.970831690973591</v>
       </c>
       <c r="D54">
-        <v>4.192546583850932</v>
+        <v>1.746894409937888</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="C55">
-        <v>9.53882538431218</v>
+        <v>7.765076862435947</v>
       </c>
       <c r="D55">
-        <v>4.425465838509317</v>
+        <v>8.035714285714286</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C56">
-        <v>20.89081592432006</v>
+        <v>5.478912100906583</v>
       </c>
       <c r="D56">
-        <v>17.43012422360248</v>
+        <v>10.71428571428571</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C57">
-        <v>28.85297595585337</v>
+        <v>17.18565234528971</v>
       </c>
       <c r="D57">
-        <v>32.41459627329192</v>
+        <v>14.94565217391304</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C58">
-        <v>20.89081592432006</v>
+        <v>2.798581001182499</v>
       </c>
       <c r="D58">
-        <v>16.18788819875776</v>
+        <v>2.368012422360248</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C59">
-        <v>15.01773748521876</v>
+        <v>5.478912100906583</v>
       </c>
       <c r="D59">
-        <v>14.20807453416149</v>
+        <v>13.81987577639752</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C60">
-        <v>15.13598738667718</v>
+        <v>1.970831690973591</v>
       </c>
       <c r="D60">
-        <v>14.47981366459627</v>
+        <v>1.746894409937888</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C61">
-        <v>18.52581789515175</v>
+        <v>17.18565234528971</v>
       </c>
       <c r="D61">
-        <v>15.87732919254658</v>
+        <v>14.94565217391304</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1471,16 +1471,16 @@
         </is>
       </c>
       <c r="C62">
-        <v>2.837997635001971</v>
+        <v>2.916830902640914</v>
       </c>
       <c r="D62">
-        <v>1.630434782608696</v>
+        <v>5.279503105590062</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1489,16 +1489,16 @@
         </is>
       </c>
       <c r="C63">
-        <v>53.76428852975956</v>
+        <v>8.750492707922744</v>
       </c>
       <c r="D63">
-        <v>57.33695652173913</v>
+        <v>17.43012422360248</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="C64">
-        <v>52.73945605045329</v>
+        <v>1.024832479306267</v>
       </c>
       <c r="D64">
-        <v>57.22049689440993</v>
+        <v>0.6599378881987578</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="C65">
-        <v>52.10878990934174</v>
+        <v>0.5518328734726055</v>
       </c>
       <c r="D65">
-        <v>57.18167701863354</v>
+        <v>3.493788819875776</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1543,16 +1543,16 @@
         </is>
       </c>
       <c r="C66">
-        <v>52.46353961371699</v>
+        <v>0.6306661411115491</v>
       </c>
       <c r="D66">
-        <v>57.60869565217391</v>
+        <v>3.649068322981366</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1561,118 +1561,982 @@
         </is>
       </c>
       <c r="C67">
-        <v>56.83878596767836</v>
+        <v>7.449743791880173</v>
       </c>
       <c r="D67">
-        <v>59.04503105590062</v>
+        <v>8.812111801242237</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C68">
-        <v>11.63149030709141</v>
+        <v>2.916830902640914</v>
       </c>
       <c r="D68">
-        <v>10.64370412196499</v>
+        <v>5.279503105590062</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C69">
-        <v>28.02522664564446</v>
+        <v>8.750492707922744</v>
       </c>
       <c r="D69">
-        <v>33.78035008469791</v>
+        <v>17.43012422360248</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C70">
-        <v>13.57007202493998</v>
+        <v>1.024832479306267</v>
       </c>
       <c r="D70">
-        <v>14.09867306606437</v>
+        <v>0.6599378881987578</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C71">
-        <v>14.93890421757982</v>
+        <v>7.449743791880173</v>
       </c>
       <c r="D71">
-        <v>16.79136081309994</v>
+        <v>8.812111801242237</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S08-Pudahuel</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C72">
-        <v>15.72007023327481</v>
+        <v>6.819077650768625</v>
       </c>
       <c r="D72">
-        <v>18.57001693958216</v>
+        <v>2.096273291925466</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>7.134410721324399</v>
+      </c>
+      <c r="D73">
+        <v>18.01242236024845</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>1.852581789515175</v>
+      </c>
+      <c r="D74">
+        <v>0.8540372670807453</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>6.582577847851794</v>
+      </c>
+      <c r="D75">
+        <v>5.822981366459627</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>12.81040599132834</v>
+      </c>
+      <c r="D76">
+        <v>17.77950310559006</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>7.055577453685455</v>
+      </c>
+      <c r="D77">
+        <v>5.745341614906832</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>6.819077650768625</v>
+      </c>
+      <c r="D78">
+        <v>2.096273291925466</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>7.134410721324399</v>
+      </c>
+      <c r="D79">
+        <v>18.01242236024845</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>1.852581789515175</v>
+      </c>
+      <c r="D80">
+        <v>0.8540372670807453</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>7.055577453685455</v>
+      </c>
+      <c r="D81">
+        <v>5.745341614906832</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>PM2.5</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>2.246748127709894</v>
+      </c>
+      <c r="D82">
+        <v>2.872670807453416</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>100</v>
+      </c>
+      <c r="D83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>1.103665746945211</v>
+      </c>
+      <c r="D84">
+        <v>2.018633540372671</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>11.86440677966102</v>
+      </c>
+      <c r="D85">
+        <v>13.58695652173913</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>4.178163184864013</v>
+      </c>
+      <c r="D86">
+        <v>4.192546583850932</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>11.15490737091053</v>
+      </c>
+      <c r="D87">
+        <v>5.93944099378882</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>2.246748127709894</v>
+      </c>
+      <c r="D88">
+        <v>2.872670807453416</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>100</v>
+      </c>
+      <c r="D89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>1.103665746945211</v>
+      </c>
+      <c r="D90">
+        <v>2.018633540372671</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>11.15490737091053</v>
+      </c>
+      <c r="D91">
+        <v>5.93944099378882</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PM2.5</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>20.89081592432006</v>
+      </c>
+      <c r="D92">
+        <v>17.54658385093168</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>28.85297595585337</v>
+      </c>
+      <c r="D93">
+        <v>32.41459627329192</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>21.00906582577848</v>
+      </c>
+      <c r="D94">
+        <v>16.42080745341615</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>15.01773748521876</v>
+      </c>
+      <c r="D95">
+        <v>14.20807453416149</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>15.13598738667718</v>
+      </c>
+      <c r="D96">
+        <v>14.47981366459627</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>26.52739456050453</v>
+      </c>
+      <c r="D97">
+        <v>25.46583850931677</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>20.89081592432006</v>
+      </c>
+      <c r="D98">
+        <v>17.54658385093168</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>28.85297595585337</v>
+      </c>
+      <c r="D99">
+        <v>32.41459627329192</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>21.00906582577848</v>
+      </c>
+      <c r="D100">
+        <v>16.42080745341615</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>26.52739456050453</v>
+      </c>
+      <c r="D101">
+        <v>25.46583850931677</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>PM2.5</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>2.956247536460386</v>
+      </c>
+      <c r="D102">
+        <v>1.630434782608696</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>53.76428852975956</v>
+      </c>
+      <c r="D103">
+        <v>57.33695652173913</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>52.81828931809224</v>
+      </c>
+      <c r="D104">
+        <v>57.22049689440993</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>52.10878990934174</v>
+      </c>
+      <c r="D105">
+        <v>57.18167701863354</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>52.46353961371699</v>
+      </c>
+      <c r="D106">
+        <v>57.60869565217391</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>57.50886874260937</v>
+      </c>
+      <c r="D107">
+        <v>59.62732919254658</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>2.956247536460386</v>
+      </c>
+      <c r="D108">
+        <v>1.630434782608696</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>53.76428852975956</v>
+      </c>
+      <c r="D109">
+        <v>57.33695652173913</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>52.81828931809224</v>
+      </c>
+      <c r="D110">
+        <v>57.22049689440993</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>57.50886874260937</v>
+      </c>
+      <c r="D111">
+        <v>59.62732919254658</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
           <t>All</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>PM2.5</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>11.78199018167485</v>
+      </c>
+      <c r="D112">
+        <v>10.74957651044608</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>28.08255993120006</v>
+      </c>
+      <c r="D113">
+        <v>33.79446640316205</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>13.65607195327337</v>
+      </c>
+      <c r="D114">
+        <v>14.16925465838509</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>14.93890421757982</v>
+      </c>
+      <c r="D115">
+        <v>16.79136081309994</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>15.72007023327481</v>
+      </c>
+      <c r="D116">
+        <v>18.57001693958216</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>Wind Speed</t>
         </is>
       </c>
-      <c r="C73">
-        <v>16.87031927473394</v>
-      </c>
-      <c r="D73">
-        <v>17.10544889892716</v>
+      <c r="C117">
+        <v>21.08073243272298</v>
+      </c>
+      <c r="D117">
+        <v>20.05575945793337</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>11.78199018167485</v>
+      </c>
+      <c r="D118">
+        <v>10.74957651044608</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>28.08255993120006</v>
+      </c>
+      <c r="D119">
+        <v>33.79446640316205</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>13.65607195327337</v>
+      </c>
+      <c r="D120">
+        <v>14.16925465838509</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>21.08073243272298</v>
+      </c>
+      <c r="D121">
+        <v>20.05575945793337</v>
       </c>
     </row>
   </sheetData>
